--- a/docs/tutorial/assets/t4_framework_2.xlsx
+++ b/docs/tutorial/assets/t4_framework_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\docs\tutorial\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\docs\tutorial\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4B4ED1-A386-46EF-92A4-FE630D4E84C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8AA99D-33BF-4244-84A8-4061999D6918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="3570" windowWidth="21225" windowHeight="17085" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18900" windowHeight="10815" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -3155,9 +3155,6 @@
     <t>sus+inf+rec</t>
   </si>
   <si>
-    <t>infx*inf/popsize</t>
-  </si>
-  <si>
     <t>contacts</t>
   </si>
   <si>
@@ -3183,6 +3180,9 @@
   </si>
   <si>
     <t>inf,rec</t>
+  </si>
+  <si>
+    <t>infx*sdiv(inf,popsize)</t>
   </si>
 </sst>
 </file>
@@ -8132,7 +8132,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -8187,13 +8187,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8207,13 +8207,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
@@ -8278,8 +8278,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8420,7 +8420,7 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8434,7 +8434,7 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -8587,10 +8587,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
       <c r="C2">
         <v>1</v>
